--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2782.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2782.xlsx
@@ -354,7 +354,7 @@
         <v>2.431346647080746</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.367603903021777</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2782.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2782.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16895112770556</v>
+        <v>1.323146939277649</v>
       </c>
       <c r="B1">
-        <v>2.431346647080746</v>
+        <v>1.850236773490906</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.315932035446167</v>
       </c>
       <c r="D1">
-        <v>2.367603903021777</v>
+        <v>3.78935980796814</v>
       </c>
       <c r="E1">
-        <v>1.231585101479991</v>
+        <v>1.115804076194763</v>
       </c>
     </row>
   </sheetData>
